--- a/pred_ohlcv/54_21/2020-01-11 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BSV ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-28.36158167000006</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-28.36158167000006</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4.956081670000057</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>45.97441832999995</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>45.97441832999995</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>23.28621832999995</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>23.28621832999995</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3.286218329999951</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4.410718329999951</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-17.56238167000005</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-17.56238167000005</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-17.56238167000005</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-175.80908167</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-167.40908167</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-86.56288167000004</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-33.25728167000004</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-33.25728167000004</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-33.74658167000004</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-33.74658167000004</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-32.82778167000004</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-24.95698167000004</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-15.83648167000004</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-15.81386586000004</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-15.85149783000004</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-7.751497830000044</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-7.751497830000044</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-7.751497830000044</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>16.18000216999996</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>16.47000216999996</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>54.57000216999996</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>54.83000216999996</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>67.77570216999996</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-215.5444375600001</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-177.2834375600001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-234.0745375600002</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-221.4075375600002</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-247.0488375600002</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-246.6788375600001</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-266.3894375600001</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-263.9294375600002</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-314.1331375600002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-314.1331375600002</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-319.2915375600002</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-319.2915375600002</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-323.4432375600002</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-323.4432375600002</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-389.5845375600002</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-367.5745375600002</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-427.3840375600003</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-403.3840375600003</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-403.3840375600003</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-458.3986375600002</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-442.0847375600002</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-442.0847375600002</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-463.6424375600002</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-469.2685375600003</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-484.3498375600003</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-483.9698375600003</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-491.8772375600003</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-488.4992375600003</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-488.8992375600002</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-487.0992375600002</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-487.0992375600002</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-487.0992375600002</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-451.2694375600003</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-451.2694375600003</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-316.3241375600003</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-251.6441375600003</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-251.6441375600003</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-225.6250390600003</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-239.7249390600003</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-279.7249390600003</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-279.7307390600003</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-276.2187390600003</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-276.2187390600003</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-271.6484390600003</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-232.5237390600003</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-238.9236390600003</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-219.5330390600003</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-222.7467390600003</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-215.1813390600003</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-190.5152390600003</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-190.5152390600003</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-185.8541390600003</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-173.7095390600003</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-104.2369219400003</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-3.79268132000044</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-4.79268132000044</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>22.90781867999956</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>34.98721867999956</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>34.98721867999956</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-6.57008132000044</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>10.92141867999956</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>16.02671867999956</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>150.8398186799996</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>2727.47259136</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>2727.47259136</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>2567.156191359999</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>2927.597193209999</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2674.817993209999</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2470.617993209999</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>2178.348793209999</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>1668.947676719999</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>1682.933776719999</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1661.873002029999</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>1641.837378909999</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>1778.575378909999</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>1785.926378909999</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>1772.305978909999</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>1731.565078909999</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>1731.565078909999</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>1891.285204219999</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1826.130504219999</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>2041.334104219999</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>2041.334104219999</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>2529.15957824</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>2792.958578239999</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>6829.565344200002</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>7039.348741540003</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>7035.343241540003</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>6677.238341540003</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>6346.473341540002</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>6541.230441540002</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>6541.230441540002</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>6634.312511420002</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>6596.416311420002</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>6511.924911420002</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>6511.924911420002</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>6161.153111420002</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>6161.153111420002</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>5653.929311420003</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>5574.104511420002</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>5447.401211420002</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>5447.401211420002</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>5403.848011420002</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>5317.875411420002</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>4986.569611420002</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>5361.524911420001</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>5509.127506080002</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>5705.920006080001</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>5904.522809330001</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>6508.884336670003</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>6444.947336670003</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>6433.675436670003</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>6121.901736670004</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>6107.793736670003</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>6023.425236670004</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>6406.549596760004</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>6402.547828370004</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>6383.848128370004</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>6383.848128370004</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>6252.952728370004</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>6632.288628370004</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>6504.389028370004</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>7084.773850700005</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>7020.152101990005</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>6958.367001990005</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>6960.112501990005</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>6962.744801990005</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>7068.279004560005</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>7080.510449590005</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>7064.713849590005</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>7045.188249590005</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>7134.720904560006</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>6977.700604560006</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>6834.710704560006</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>6971.316204560006</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>6971.316204560006</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>6994.949404680006</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>6993.913404680005</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>7019.098703900006</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>7030.601403900006</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>7025.715903900005</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>7001.459682910006</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BSV ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>-33.74658167000004</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-31.07028167000004</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-7.751497830000044</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-7.751497830000044</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>16.39720216999996</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>16.18000216999996</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>16.47000216999996</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>54.57000216999996</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>54.83000216999996</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>67.77570216999996</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-185.7318375600001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-230.3037375600001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-234.0745375600002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-221.4075375600002</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-247.0488375600002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-246.6788375600001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-266.3894375600001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-266.3894375600001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-263.9294375600002</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-263.3201375600001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-252.1301375600002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-322.5641375600002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-330.6541375600002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-330.3941375600002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-350.3941375600002</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-275.4948375600002</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-310.2773375600002</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-287.7118375600002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-458.3986375600002</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-442.0847375600002</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-463.6424375600002</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-469.2685375600003</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-251.6441375600003</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-251.6441375600003</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-225.6250390600003</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-239.7249390600003</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-279.7249390600003</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-279.7307390600003</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-276.2187390600003</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-276.2187390600003</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-271.6484390600003</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-271.7062390600003</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-232.5237390600003</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-238.9236390600003</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-219.5330390600003</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-222.7467390600003</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-215.1813390600003</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-190.5152390600003</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-190.5152390600003</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-185.8541390600003</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-173.7095390600003</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-104.2369219400003</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>135.1477074299996</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>193.5685868499996</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>193.3103868499996</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>193.3103868499996</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>206.2913868499996</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>193.6780868499996</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>203.0883868499996</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>179.6464868499996</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>180.9423868499996</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>66.22018684999962</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-48.50201315000038</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>136.6336868499996</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-3.79268132000044</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-4.79268132000044</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>22.90781867999956</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>34.98721867999956</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>34.98721867999956</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-6.57008132000044</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>10.92141867999956</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>16.02671867999956</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>150.8398186799996</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>2727.47259136</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>2727.47259136</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>2567.156191359999</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>2927.597193209999</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2674.817993209999</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2470.617993209999</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>2178.348793209999</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>1668.947676719999</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>1682.933776719999</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1661.873002029999</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>1641.837378909999</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>1778.575378909999</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>1785.926378909999</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>1772.305978909999</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>1731.565078909999</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>1731.565078909999</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>1891.285204219999</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1826.130504219999</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>2041.334104219999</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>2041.334104219999</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>2529.15957824</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>2792.958578239999</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>6552.700055300002</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>6552.700055300002</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>6829.565344200002</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>6702.329444200002</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>6834.129744200002</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>7232.244244200002</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>6778.394641540002</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>6884.666541540003</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>7039.348741540003</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>7035.343241540003</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>6677.238341540003</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>6346.473341540002</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>6541.230441540002</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>6541.230441540002</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>6634.312511420002</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>6596.416311420002</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>6511.924911420002</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>6511.924911420002</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>6161.153111420002</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>6161.153111420002</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>5653.929311420003</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>5574.104511420002</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>5447.401211420002</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>5447.401211420002</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>5403.848011420002</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>5317.875411420002</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>4986.569611420002</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>5361.524911420001</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>5509.127506080002</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>5705.920006080001</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>5904.522809330001</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>6071.185419000001</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>6039.584819000002</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>6137.290419000002</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>6186.526319000001</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>6109.421419000001</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>6121.688419000001</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>6175.613919000001</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>6151.621151260001</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>6159.884751260001</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>6100.755451260002</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>6110.877051260002</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>6588.689436670003</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>6535.493036670003</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>6319.572036670002</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>6420.205236670003</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>6460.221536670003</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>6399.636036670003</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>6413.968936670003</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>6413.968936670003</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>6555.596536670003</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>6555.596536670003</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>6341.018436670003</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>6573.563636670003</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>6625.147836670003</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>6508.884336670003</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>6508.884336670003</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>6444.947336670003</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>6433.675436670003</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>6121.901736670004</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>6107.793736670003</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>6023.425236670004</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>6165.117492620004</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>6140.153092620004</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>6549.156592620004</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>6406.549596760004</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>6402.547828370004</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>6383.848128370004</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>6383.848128370004</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>6252.952728370004</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>7020.152101990005</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>6958.367001990005</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>7010.922601990004</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>6960.112501990005</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>7068.279004560005</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>7080.510449590005</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>7064.713849590005</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>7045.188249590005</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>6977.700604560006</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>6834.710704560006</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>6971.316204560006</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>6971.316204560006</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>6994.949404680006</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>6993.913404680005</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
